--- a/BillOfMaterials.xlsx
+++ b/BillOfMaterials.xlsx
@@ -1806,7 +1806,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s" s="8">
         <v>34</v>
@@ -1858,7 +1858,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s" s="8">
         <v>42</v>
